--- a/SEW_MTBF_optimization_1000h/withGUI/data.xlsx
+++ b/SEW_MTBF_optimization_1000h/withGUI/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\withGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D4BE4-5AC0-408B-AFE7-070C687130A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B70FA2-D872-4285-A855-ACE91F35F21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="16410" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,19 +488,19 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -531,10 +531,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="1">
-        <v>1.1077773333806544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -548,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>3.8493253125416231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,10 +565,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>0.72583058202872053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -582,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>1.9251563889047247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>0.49202765880285632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -616,10 +616,10 @@
         <v>7.2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.8897885647311341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="1">
-        <v>1.7304518517339602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -650,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0819364813505672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -667,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>0.81522379617672414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -684,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>0.70917166670551524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -701,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>13.963875000161352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13.964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>0.47745097210281529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -735,10 +735,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>21.962745277793147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21.963000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -752,10 +752,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>4.4989916666527279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.4989999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -769,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>3.3067130553536117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3069999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>2.6317769445595331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -803,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>2.2633008333505131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.2629999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -820,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>2.14952972199535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -837,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>2.0239841667353176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>2.021517499932088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.0219999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -871,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2310027778148651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.2310000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -888,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="1">
-        <v>1.1092583333957009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -905,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0530813887016848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -922,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="1">
-        <v>0.97076027747243643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -939,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>0.77463250007713214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -956,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>0.63928805576870218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -973,10 +973,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>0.57157500012544915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="1">
-        <v>0.37062694440828636</v>
+        <v>0.371</v>
       </c>
     </row>
   </sheetData>
